--- a/template/Template Biaya Uang Representasi.xlsx
+++ b/template/Template Biaya Uang Representasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belajar Coding _Programmer\aplikasi-perjadin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841AAB62-89C4-40AE-A365-3B4924ACAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130083E-ED56-4E60-A1D0-2F7722782C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
@@ -41,6 +41,18 @@
   <si>
     <t>DALAM KOTA LEBIH DARI 8 JAM
 (Rp)</t>
+  </si>
+  <si>
+    <t>PEJABAT NEGARA, PEJABAT DAERAH</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>PEJABAT ESELON  I</t>
+  </si>
+  <si>
+    <t>PEJABAT ESELON  II</t>
   </si>
 </sst>
 </file>
@@ -50,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +76,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,13 +122,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -421,20 +458,20 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" customWidth="1"/>
     <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="42.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -447,56 +484,90 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="56">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>250000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>125000</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="28">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>100000</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="9">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
   </sheetData>

--- a/template/Template Biaya Uang Representasi.xlsx
+++ b/template/Template Biaya Uang Representasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belajar Coding _Programmer\aplikasi-perjadin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130083E-ED56-4E60-A1D0-2F7722782C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D386C8-6976-46D9-83FD-C5F9252EB4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
   </bookViews>
@@ -49,10 +49,10 @@
     <t>OH</t>
   </si>
   <si>
-    <t>PEJABAT ESELON  I</t>
-  </si>
-  <si>
-    <t>PEJABAT ESELON  II</t>
+    <t>PEJABAT ESELON II</t>
+  </si>
+  <si>
+    <t>PEJABAT ESELON I</t>
   </si>
 </sst>
 </file>
@@ -119,26 +119,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,7 +458,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -471,78 +471,78 @@
     <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="56">
-      <c r="A2" s="6">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="28">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>250000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>125000</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="28">
-      <c r="A3" s="6">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>200000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>100000</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="28">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>150000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>75000</v>
       </c>
     </row>
